--- a/Data/EC/NIT-9005011690.xlsx
+++ b/Data/EC/NIT-9005011690.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BF68677-28E9-4324-949A-35C8CBD35760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6DF5B2-A155-4EB3-AAAA-C9E43254A5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A5A5809-B1C9-41CB-A317-815CEC1024F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E3F6CDCC-9D7D-48C0-AF2D-FC2A259EE4EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,156 @@
     <t>NIEL GREGORIO SANJUAN ORDOÑEZ</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
@@ -78,156 +228,6 @@
   </si>
   <si>
     <t>RIVIS ALBERTO CORONADO DE LOS REYES</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA00E04-D4B0-A8C2-CA4D-D9197EE30486}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442065B1-62A4-FE6B-1496-137D5B07B0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90A553D-CF91-4178-8F40-4DDAC50E8A96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558ACD9F-D3B6-45B6-966F-344678565942}">
   <dimension ref="B2:J123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1170,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>29166</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1184,16 +1184,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1213,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1230,16 +1230,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1253,16 +1253,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1282,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1299,16 +1299,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1328,10 +1328,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1351,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1368,16 +1368,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1397,10 +1397,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1414,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1437,16 +1437,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1466,10 +1466,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1483,16 +1483,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1512,10 +1512,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1529,16 +1529,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1558,10 +1558,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1581,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1598,16 +1598,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1627,10 +1627,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1644,16 +1644,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1673,10 +1673,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1690,16 +1690,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1713,16 +1713,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1742,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>27578</v>
@@ -1765,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>27578</v>
@@ -1782,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>27578</v>
@@ -1805,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>27578</v>
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>27578</v>
@@ -1851,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>27578</v>
@@ -1880,7 +1880,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>27578</v>
@@ -1903,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>27578</v>
@@ -1920,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>27578</v>
@@ -1949,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>27578</v>
@@ -1966,13 +1966,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>27578</v>
@@ -1989,13 +1989,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>27578</v>
@@ -2018,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>27578</v>
@@ -2041,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>27578</v>
@@ -2058,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>27578</v>
@@ -2081,13 +2081,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>27578</v>
@@ -2110,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>27578</v>
@@ -2133,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>27578</v>
@@ -2150,13 +2150,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>27578</v>
@@ -2179,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>27578</v>
@@ -2196,13 +2196,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>27578</v>
@@ -2219,13 +2219,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>27578</v>
@@ -2248,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>27578</v>
@@ -2265,13 +2265,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>27578</v>
@@ -2294,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>27578</v>
@@ -2317,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>27578</v>
@@ -2334,16 +2334,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>29166</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2357,13 +2357,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2380,13 +2380,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D69" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2403,13 +2403,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2426,13 +2426,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2449,13 +2449,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2472,13 +2472,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2495,13 +2495,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2518,13 +2518,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2541,13 +2541,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2564,13 +2564,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2587,13 +2587,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2610,13 +2610,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2633,13 +2633,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2656,13 +2656,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2679,13 +2679,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2702,13 +2702,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2725,13 +2725,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2748,13 +2748,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2771,13 +2771,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2794,13 +2794,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2817,13 +2817,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2840,13 +2840,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2863,13 +2863,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2886,13 +2886,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -2909,16 +2909,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2932,16 +2932,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -2955,16 +2955,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -2978,16 +2978,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3001,16 +3001,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3024,16 +3024,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3047,16 +3047,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3070,16 +3070,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3093,16 +3093,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3116,16 +3116,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3139,16 +3139,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3162,16 +3162,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3185,16 +3185,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3208,16 +3208,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3231,16 +3231,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3254,16 +3254,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3277,16 +3277,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3300,16 +3300,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3323,16 +3323,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3346,16 +3346,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3369,16 +3369,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3392,16 +3392,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3415,16 +3415,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3438,16 +3438,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3461,16 +3461,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F116" s="18">
-        <v>29166</v>
+        <v>27578</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3484,16 +3484,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F117" s="24">
-        <v>29166</v>
+        <v>27578</v>
       </c>
       <c r="G117" s="24">
         <v>781242</v>

--- a/Data/EC/NIT-9005011690.xlsx
+++ b/Data/EC/NIT-9005011690.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6DF5B2-A155-4EB3-AAAA-C9E43254A5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32FB56EF-3E74-4538-8C53-A7BCFD17B393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E3F6CDCC-9D7D-48C0-AF2D-FC2A259EE4EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4673158-928C-4D56-8A49-B4F57F1E0B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,163 +71,163 @@
     <t>NIEL GREGORIO SANJUAN ORDOÑEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>8632243</t>
+  </si>
+  <si>
+    <t>RIVIS ALBERTO CORONADO DE LOS REYES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>8632243</t>
-  </si>
-  <si>
-    <t>RIVIS ALBERTO CORONADO DE LOS REYES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +326,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +341,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +541,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +585,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442065B1-62A4-FE6B-1496-137D5B07B0EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C3D2BF-B5B5-A136-8093-8B55CBAD6A93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558ACD9F-D3B6-45B6-966F-344678565942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413AD3E7-B030-440C-937F-9438FFED6BBA}">
   <dimension ref="B2:J123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1170,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29166</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1184,16 +1184,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1213,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1230,16 +1230,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1262,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1276,16 +1276,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1305,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1322,16 +1322,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1351,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1368,16 +1368,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1397,10 +1397,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1414,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1443,10 +1443,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1460,16 +1460,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1489,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1506,16 +1506,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1535,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1552,16 +1552,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1581,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1598,16 +1598,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1627,10 +1627,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1644,16 +1644,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1673,10 +1673,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1690,16 +1690,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1719,10 +1719,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1736,13 +1736,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>27578</v>
@@ -1765,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>27578</v>
@@ -1782,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>27578</v>
@@ -1811,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>27578</v>
@@ -1828,13 +1828,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
         <v>27578</v>
@@ -1857,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>27578</v>
@@ -1874,13 +1874,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>27578</v>
@@ -1903,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>27578</v>
@@ -1920,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
         <v>27578</v>
@@ -1949,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>27578</v>
@@ -1966,13 +1966,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>27578</v>
@@ -1995,7 +1995,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>27578</v>
@@ -2012,13 +2012,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>27578</v>
@@ -2041,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>27578</v>
@@ -2058,13 +2058,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
         <v>27578</v>
@@ -2087,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>27578</v>
@@ -2104,13 +2104,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
         <v>27578</v>
@@ -2133,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>27578</v>
@@ -2150,13 +2150,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>27578</v>
@@ -2179,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>27578</v>
@@ -2196,13 +2196,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>27578</v>
@@ -2225,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>27578</v>
@@ -2242,13 +2242,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>27578</v>
@@ -2271,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>27578</v>
@@ -2288,13 +2288,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
         <v>27578</v>
@@ -2317,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>27578</v>
@@ -2334,16 +2334,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>29166</v>
+        <v>27578</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2357,13 +2357,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2380,13 +2380,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2403,13 +2403,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2426,13 +2426,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2449,13 +2449,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2472,13 +2472,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2495,13 +2495,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2518,13 +2518,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2541,13 +2541,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2564,13 +2564,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2587,13 +2587,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2610,13 +2610,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2633,13 +2633,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2656,13 +2656,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2679,13 +2679,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2702,13 +2702,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2725,13 +2725,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2748,13 +2748,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2771,13 +2771,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2794,13 +2794,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2817,13 +2817,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2840,13 +2840,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2863,13 +2863,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2886,13 +2886,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -2909,16 +2909,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2932,16 +2932,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -2955,16 +2955,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -2978,16 +2978,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3001,16 +3001,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3024,16 +3024,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3047,16 +3047,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3070,16 +3070,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3093,16 +3093,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3116,16 +3116,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3139,16 +3139,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3162,16 +3162,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3185,16 +3185,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3208,16 +3208,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F105" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3231,16 +3231,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F106" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3254,16 +3254,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F107" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3277,16 +3277,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F108" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3300,16 +3300,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3323,16 +3323,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3346,16 +3346,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3369,16 +3369,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3392,16 +3392,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3415,16 +3415,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D114" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3438,16 +3438,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D115" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3461,16 +3461,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E116" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>29166</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3484,16 +3484,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D117" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E117" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="F117" s="24">
-        <v>27578</v>
+        <v>29166</v>
       </c>
       <c r="G117" s="24">
         <v>781242</v>
